--- a/entregas/EV3/thesaurus.xlsx
+++ b/entregas/EV3/thesaurus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOMY\Documents\complementario-3125033\entregas\EV3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E96C9-4F4B-432A-9EBF-EF31ECBE119D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3159AE33-3630-4E29-ABF5-105780983540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9FD8948B-0C59-402D-A823-6C6A66108BAC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
   <si>
     <t>Número</t>
   </si>
@@ -123,9 +123,6 @@
     <t>La importancia de la Arquitectura de software</t>
   </si>
   <si>
-    <t>Arquitectura de software para entornos móviles</t>
-  </si>
-  <si>
     <t>Arquitectura de software para descubrimiento de conocimiento</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Arquitectura software de sistemas abiertos</t>
   </si>
   <si>
-    <t>Título: Visión de las competencias en arquitectura de software integrando las perspectivas de la industria y la academia</t>
-  </si>
-  <si>
     <t>Metodologías Ágiles en el Desarrollo de Software</t>
   </si>
   <si>
@@ -175,13 +169,121 @@
   </si>
   <si>
     <t>Artículo</t>
+  </si>
+  <si>
+    <t>https://repositorio.upeu.edu.pe/items/11034d47-e68f-4b85-b9d2-83e9ceb0ef78</t>
+  </si>
+  <si>
+    <t>https://revistas.unal.edu.co/index.php/avances/article/view/93555/78241</t>
+  </si>
+  <si>
+    <t>https://www.fceia.unr.edu.ar/~mcristia/Introduccion_a_la_Arquitectura_de_Software.pdf</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/pdf/849/84933912003.pdf</t>
+  </si>
+  <si>
+    <t>https://sedici.unlp.edu.ar/handle/10915/62077</t>
+  </si>
+  <si>
+    <t>http://ojs.uac.edu.co/index.php/prospectiva/article/view/2636</t>
+  </si>
+  <si>
+    <t>https://www.econstor.eu/handle/10419/130825</t>
+  </si>
+  <si>
+    <t>https://sedici.unlp.edu.ar/handle/10915/67795</t>
+  </si>
+  <si>
+    <t>http://revistas.bnjm.cu/index.php/BAI/article/view/326</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=3692798</t>
+  </si>
+  <si>
+    <t>file:///C:/Users/MOMY/Downloads/arquitectura-de-software-dinamica-basada-en-reflexion--0.pdf</t>
+  </si>
+  <si>
+    <t>https://sedici.unlp.edu.ar/handle/10915/53411</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=8590088</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/journal/5337/533774788007/html/</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=9257807</t>
+  </si>
+  <si>
+    <t>https://rcti.informatica-unsxx.net/index.php/MCNII/article/view/81/38</t>
+  </si>
+  <si>
+    <t>https://sg.com.mx/content/view/409</t>
+  </si>
+  <si>
+    <t>Arquitecturas de software para entornos móviles</t>
+  </si>
+  <si>
+    <t>https://revistas.uniquindio.edu.co/ojs/index.php/riuq/article/view/145</t>
+  </si>
+  <si>
+    <t>https://bibliotecadigital.univalle.edu.co/entities/publication/48465fdd-a210-45e2-b407-6e23f7c58b2c</t>
+  </si>
+  <si>
+    <t>https://e-archivo.uc3m.es/entities/publication/7a9d7255-a79e-4d71-b775-40403864c6f8</t>
+  </si>
+  <si>
+    <t>https://www.fceia.unr.edu.ar/ingsoft/intro-diseno.pdf</t>
+  </si>
+  <si>
+    <t>https://cimat.repositorioinstitucional.mx/jspui/handle/1008/401</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/pdf/849/84916714067.pdf</t>
+  </si>
+  <si>
+    <t>https://publicacionescd.uleam.edu.ec/index.php/encriptar/article/view/551</t>
+  </si>
+  <si>
+    <t>https://repositorio.utp.edu.co/entities/publication/ce702f35-efc1-4666-b7bc-b5d3371fe15b</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=9042927</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=4786655</t>
+  </si>
+  <si>
+    <t>https://webcache.icesi.edu.co/revistas/index.php/sistemas_telematica/article/view/918</t>
+  </si>
+  <si>
+    <t>https://revistas.unla.edu.ar/software/article/view/1029</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=5452527</t>
+  </si>
+  <si>
+    <t>Visión de las competencias en arquitectura de software integrando las perspectivas de la industria y la academia</t>
+  </si>
+  <si>
+    <t>https://ojs.unipamplona.edu.co/index.php/rcta/article/view/2798</t>
+  </si>
+  <si>
+    <t>https://d1wqtxts1xzle7.cloudfront.net/34546906/XP_Agil-libre.pdf?1409109861=&amp;response-content-disposition=inline%3B+filename%3DMetodologias_Agiles_en_el_Desarrollo_de.pdf&amp;Expires=1733862786&amp;Signature=GKCZcjKG8FwvMKFEo1BjJiDbxoxpFZN9k4~Bvy5hK7ibmKQInbEZHzjgd0kOBvjTqyRhGj6thZ39lSkvy-o3O-SwWUdDv6kH-lNDK4nNal1bgBlQ7e4sS3uiJ0C97e2aRbRniVSfLgP-NuCnC1tTHwGdzA-7ss5fqx6Ai-OXXKUQ7l3wIrdsGDxwE5NyPPRID~BCoXQoOSg5NnSaWvURGBx23gK68mtsSjBqSYk8Ot4ZQtpUfKTvglGGQCAggNLK7ocBTZ6~PZzZuWY3QysWZ1lxZ1FFhQ5pxSsS13kbxwH5IxhJA6c53JrhTeYPg7QOmeEwq-ycs2nFg-IvmSZZvg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
+  </si>
+  <si>
+    <t>https://sedici.unlp.edu.ar/handle/10915/57164</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=6777227</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +310,14 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,10 +358,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -262,8 +373,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,7 +692,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +701,7 @@
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="146.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -637,7 +750,9 @@
       <c r="D2" s="2">
         <v>45605</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
@@ -648,7 +763,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -667,7 +782,9 @@
       <c r="D3" s="2">
         <v>45605</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
@@ -676,7 +793,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -692,7 +809,9 @@
       <c r="D4" s="2">
         <v>45605</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
@@ -701,7 +820,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -717,7 +836,9 @@
       <c r="D5" s="2">
         <v>45605</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
@@ -726,7 +847,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -742,7 +863,9 @@
       <c r="D6" s="2">
         <v>45605</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
@@ -751,7 +874,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -767,7 +890,9 @@
       <c r="D7" s="2">
         <v>45605</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
@@ -776,7 +901,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -792,7 +917,9 @@
       <c r="D8" s="2">
         <v>45605</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -801,7 +928,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -817,7 +944,9 @@
       <c r="D9" s="2">
         <v>45605</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
@@ -826,7 +955,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -842,7 +971,9 @@
       <c r="D10" s="2">
         <v>45605</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
@@ -851,7 +982,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -867,7 +998,9 @@
       <c r="D11" s="2">
         <v>45605</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
@@ -876,7 +1009,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -892,7 +1025,9 @@
       <c r="D12" s="2">
         <v>45605</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
@@ -901,7 +1036,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -917,7 +1052,9 @@
       <c r="D13" s="2">
         <v>45605</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,7 +1063,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -942,7 +1079,9 @@
       <c r="D14" s="2">
         <v>45605</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,7 +1090,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -967,7 +1106,9 @@
       <c r="D15" s="2">
         <v>45605</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,7 +1117,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -992,7 +1133,9 @@
       <c r="D16" s="2">
         <v>45605</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,7 +1144,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1017,7 +1160,9 @@
       <c r="D17" s="2">
         <v>45605</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1026,7 +1171,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1042,7 +1187,9 @@
       <c r="D18" s="2">
         <v>45605</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,7 +1198,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1067,16 +1214,18 @@
       <c r="D19" s="2">
         <v>45605</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1092,16 +1241,18 @@
       <c r="D20" s="2">
         <v>45605</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1117,16 +1268,18 @@
       <c r="D21" s="2">
         <v>45605</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1142,16 +1295,18 @@
       <c r="D22" s="2">
         <v>45605</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1167,16 +1322,18 @@
       <c r="D23" s="2">
         <v>45605</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1192,16 +1349,18 @@
       <c r="D24" s="2">
         <v>45605</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1217,16 +1376,18 @@
       <c r="D25" s="2">
         <v>45605</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1242,16 +1403,18 @@
       <c r="D26" s="2">
         <v>45605</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1267,16 +1430,18 @@
       <c r="D27" s="2">
         <v>45605</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1292,16 +1457,18 @@
       <c r="D28" s="2">
         <v>45605</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1317,16 +1484,18 @@
       <c r="D29" s="2">
         <v>45605</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1342,16 +1511,18 @@
       <c r="D30" s="2">
         <v>45605</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1367,16 +1538,18 @@
       <c r="D31" s="2">
         <v>45605</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1392,16 +1565,18 @@
       <c r="D32" s="2">
         <v>45613</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1417,16 +1592,18 @@
       <c r="D33" s="2">
         <v>45613</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1442,16 +1619,18 @@
       <c r="D34" s="2">
         <v>45613</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1467,19 +1646,57 @@
       <c r="D35" s="2">
         <v>45613</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{5CA3E796-E074-4196-8CEE-428AE5299816}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{E7528DDE-15C0-426B-A718-41D632544272}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{806A3327-79D1-4E1D-9722-EB12E3AFFD6B}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B3EC6825-4B98-41B6-BABB-2D69ED4BF3B1}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{F4A287FF-0A9A-4349-80EC-976EDE2FC728}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{F4CFBBF7-B9BB-4346-B621-D2433B6F5525}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{EE9CB499-C674-44C1-A9BF-2BF0B7E016F2}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{B5B27711-2C7B-4ADD-8F31-699567616C96}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{1FAD1DF1-01D0-485A-9D9B-D6AB753E9F92}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{6B783613-90C1-415A-8AF1-DCA14877C80D}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{AD0F11BE-15D4-4061-8503-4F6A2677F32E}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{9C5A94CF-0092-44FD-9E7E-A9657125234B}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{937FB4B6-4CA4-4F98-800E-089EBE7A3075}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{5D447539-1288-44B8-9013-38A69350DC40}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{4ED5BFAB-817D-41B2-AC56-D7A91B548C18}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{18FD0DA1-81C3-4071-AC69-A3CBB094C251}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{F402FD37-F8C0-408A-BCCE-AF32D1441835}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{1450B347-0966-44CB-A8E0-B036FCD28A80}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{ECD0F1D4-B8F9-4E07-BD7E-0BE9290FD831}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{A49B8707-B0FE-4645-B288-31977FEEAF97}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{75F0925A-AD49-4493-A593-6C68182B01B5}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{7E3C2F0E-D8C2-424D-9D63-5146E07E4F4D}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{112CE8FE-9970-4A35-AAED-A0B889CC11EB}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{7213A446-EAD2-4ECA-9794-BAEC0A8B9D6D}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{0B28CCDA-11F9-40AA-800F-68523FF34D6C}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{3C101276-03F6-49B1-A43E-FF78AE83AA08}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{37290DF1-962C-4427-85D7-A9F6F253F536}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{E8FDDBCA-A3F5-445E-A565-E69D3FD82DB9}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{B5E63348-5119-40EE-9EDD-3AEEBCD0014A}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{0E0AE3C5-34E8-4BC8-B31D-6261E229D7EA}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{D55D1E66-0A80-4B7A-AE0A-5CD8D9C21498}"/>
+    <hyperlink ref="E33" r:id="rId32" display="https://d1wqtxts1xzle7.cloudfront.net/34546906/XP_Agil-libre.pdf?1409109861=&amp;response-content-disposition=inline%3B+filename%3DMetodologias_Agiles_en_el_Desarrollo_de.pdf&amp;Expires=1733862786&amp;Signature=GKCZcjKG8FwvMKFEo1BjJiDbxoxpFZN9k4~Bvy5hK7ibmKQInbEZHzjgd0kOBvjTqyRhGj6thZ39lSkvy-o3O-SwWUdDv6kH-lNDK4nNal1bgBlQ7e4sS3uiJ0C97e2aRbRniVSfLgP-NuCnC1tTHwGdzA-7ss5fqx6Ai-OXXKUQ7l3wIrdsGDxwE5NyPPRID~BCoXQoOSg5NnSaWvURGBx23gK68mtsSjBqSYk8Ot4ZQtpUfKTvglGGQCAggNLK7ocBTZ6~PZzZuWY3QysWZ1lxZ1FFhQ5pxSsS13kbxwH5IxhJA6c53JrhTeYPg7QOmeEwq-ycs2nFg-IvmSZZvg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{C8633C62-69D3-4F4D-B80C-26FD403A3ADB}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{388B436D-DC40-43DE-B927-9E888B1556E2}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{915005E1-1094-476C-ABB0-9B89BCC746A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/entregas/EV3/thesaurus.xlsx
+++ b/entregas/EV3/thesaurus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOMY\Documents\complementario-3125033\entregas\EV3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3159AE33-3630-4E29-ABF5-105780983540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19810DD3-8CA5-4C23-8A2B-F42E3BBB7FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9FD8948B-0C59-402D-A823-6C6A66108BAC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
   <si>
     <t>Número</t>
   </si>
@@ -692,7 +692,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,8 +759,8 @@
       <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
+      <c r="H2" s="1">
+        <v>848</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>44</v>
@@ -791,7 +791,9 @@
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>848</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>44</v>
       </c>
@@ -818,7 +820,9 @@
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>848</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>44</v>
       </c>
@@ -845,7 +849,9 @@
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>848</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>44</v>
       </c>
@@ -872,7 +878,9 @@
       <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>848</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
@@ -899,7 +907,9 @@
       <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>848</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>44</v>
       </c>
@@ -926,7 +936,9 @@
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>848</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>44</v>
       </c>
@@ -953,7 +965,9 @@
       <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>848</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>44</v>
       </c>
@@ -980,7 +994,9 @@
       <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>848</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1007,7 +1023,9 @@
       <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>848</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1034,7 +1052,9 @@
       <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>848</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1061,7 +1081,9 @@
       <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>848</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1088,7 +1110,9 @@
       <c r="G14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>848</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1115,7 +1139,9 @@
       <c r="G15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>848</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>44</v>
       </c>
@@ -1142,7 +1168,9 @@
       <c r="G16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>848</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1169,7 +1197,9 @@
       <c r="G17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>848</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1196,7 +1226,9 @@
       <c r="G18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>848</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1223,7 +1255,9 @@
       <c r="G19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>848</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1250,7 +1284,9 @@
       <c r="G20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>848</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1277,7 +1313,9 @@
       <c r="G21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>848</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1304,7 +1342,9 @@
       <c r="G22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>848</v>
+      </c>
       <c r="I22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1331,7 +1371,9 @@
       <c r="G23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>848</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1358,7 +1400,9 @@
       <c r="G24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>848</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1385,7 +1429,9 @@
       <c r="G25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>848</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1412,7 +1458,9 @@
       <c r="G26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>848</v>
+      </c>
       <c r="I26" s="1" t="s">
         <v>44</v>
       </c>
@@ -1439,7 +1487,9 @@
       <c r="G27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>848</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1466,7 +1516,9 @@
       <c r="G28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>848</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>44</v>
       </c>
@@ -1493,7 +1545,9 @@
       <c r="G29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>848</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1520,7 +1574,9 @@
       <c r="G30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <v>848</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>44</v>
       </c>
@@ -1547,7 +1603,9 @@
       <c r="G31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>848</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>44</v>
       </c>
@@ -1574,7 +1632,9 @@
       <c r="G32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>848</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1601,7 +1661,9 @@
       <c r="G33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>848</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1628,7 +1690,9 @@
       <c r="G34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>848</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>44</v>
       </c>
@@ -1655,7 +1719,9 @@
       <c r="G35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>848</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>44</v>
       </c>
